--- a/upload/consultas-urgencia-2025.xlsx
+++ b/upload/consultas-urgencia-2025.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17954399\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="16">
   <si>
     <t>unidade</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>UDC - Unidade de Decisão Clínica</t>
-  </si>
-  <si>
-    <t>HJK</t>
-  </si>
-  <si>
-    <t>Unidade Urgência-Emergência</t>
   </si>
   <si>
     <t>HRBJA</t>
@@ -399,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -596,24 +590,24 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
         <v>2025</v>
       </c>
       <c r="C12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" s="3">
-        <v>248</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="2">
         <v>2025</v>
@@ -622,313 +616,313 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <v>2025</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>2553</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>2025</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>2372</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2">
         <v>2025</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3">
-        <v>2754</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
         <v>2025</v>
       </c>
       <c r="C17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3">
-        <v>2677</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
         <v>2025</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>3071</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B19" s="2">
         <v>2025</v>
       </c>
       <c r="C19" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="3">
-        <v>3019</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2">
         <v>2025</v>
       </c>
       <c r="C20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="3">
-        <v>3081</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
         <v>2025</v>
       </c>
       <c r="C21" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>3114</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
         <v>2025</v>
       </c>
       <c r="C22" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3">
-        <v>3149</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2">
         <v>2025</v>
       </c>
       <c r="C23" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" s="3">
-        <v>3133</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2">
         <v>2025</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" s="3">
-        <v>4</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
         <v>2025</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="3">
-        <v>476</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2">
         <v>2025</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
       <c r="E27" s="3">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2">
         <v>2025</v>
       </c>
       <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="3">
         <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3">
-        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C29" s="2">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C30" s="2">
-        <v>4</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
-      </c>
       <c r="E30" s="3">
-        <v>462</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2">
         <v>2025</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -936,512 +930,614 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>15</v>
-      </c>
       <c r="E32" s="3">
-        <v>525</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2">
         <v>2025</v>
       </c>
       <c r="C33" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E33" s="3">
-        <v>464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C34" s="2">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
       <c r="E34" s="3">
-        <v>2</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C35" s="2">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
       <c r="E35" s="3">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2">
         <v>2025</v>
       </c>
       <c r="C36" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C37" s="2">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C37" s="2">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
       <c r="E37" s="3">
-        <v>489</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2">
         <v>2025</v>
       </c>
       <c r="C38" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C39" s="2">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
       <c r="E39" s="3">
-        <v>447</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2">
         <v>2025</v>
       </c>
       <c r="C40" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E40" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C41" s="2">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
       <c r="E41" s="3">
-        <v>550</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2">
         <v>2025</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E42" s="3">
-        <v>318</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2">
         <v>2025</v>
       </c>
       <c r="C43" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E43" s="3">
-        <v>283</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B44" s="2">
         <v>2025</v>
       </c>
       <c r="C44" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E44" s="3">
-        <v>378</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2">
         <v>2025</v>
       </c>
       <c r="C45" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E45" s="3">
-        <v>357</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2">
         <v>2025</v>
       </c>
       <c r="C46" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="3">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="2">
         <v>2025</v>
       </c>
       <c r="C47" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="3">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" s="2">
         <v>2025</v>
       </c>
       <c r="C48" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="3">
-        <v>322</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B49" s="2">
         <v>2025</v>
       </c>
       <c r="C49" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="3">
-        <v>326</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B50" s="2">
         <v>2025</v>
       </c>
       <c r="C50" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="3">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B51" s="2">
         <v>2025</v>
       </c>
       <c r="C51" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="3">
-        <v>343</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B52" s="2">
         <v>2025</v>
       </c>
       <c r="C52" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="3">
-        <v>1852</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B53" s="2">
         <v>2025</v>
       </c>
       <c r="C53" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="3">
-        <v>1702</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B54" s="2">
         <v>2025</v>
       </c>
       <c r="C54" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="3">
-        <v>1974</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B55" s="2">
         <v>2025</v>
       </c>
       <c r="C55" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="3">
-        <v>1926</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B56" s="2">
         <v>2025</v>
       </c>
       <c r="C56" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="3">
-        <v>1841</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B57" s="2">
         <v>2025</v>
       </c>
       <c r="C57" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="3">
-        <v>1688</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B58" s="2">
         <v>2025</v>
       </c>
       <c r="C58" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="3">
-        <v>1727</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B59" s="2">
         <v>2025</v>
       </c>
       <c r="C59" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="3">
-        <v>1761</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B60" s="2">
         <v>2025</v>
       </c>
       <c r="C60" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="3">
-        <v>1751</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B61" s="2">
         <v>2025</v>
       </c>
       <c r="C61" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="3">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C62" s="2">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C63" s="2">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C64" s="2">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C65" s="2">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="3">
         <v>1838</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C67" s="2">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1721</v>
       </c>
     </row>
   </sheetData>

--- a/upload/consultas-urgencia-2025.xlsx
+++ b/upload/consultas-urgencia-2025.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17954399\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m10428324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="16">
   <si>
     <t>unidade</t>
   </si>
@@ -57,10 +57,10 @@
     <t>HRJP</t>
   </si>
   <si>
-    <t>Unidade de Decisão Clínica</t>
+    <t>Unidade de Urgência - Maternidade</t>
   </si>
   <si>
-    <t>Unidade de Urgência - Maternidade</t>
+    <t>Unidade de Decisão Clínica</t>
   </si>
   <si>
     <t>IRS</t>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -423,16 +423,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2469</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,16 +440,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3">
-        <v>2403</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,16 +457,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3">
-        <v>2546</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,16 +474,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3">
-        <v>2658</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,16 +491,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="3">
-        <v>3009</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,16 +508,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="3">
-        <v>2732</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,16 +525,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C8" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3">
-        <v>2688</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,16 +542,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C9" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="3">
-        <v>2855</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,16 +559,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C10" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="3">
-        <v>2771</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,16 +576,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C11" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="3">
-        <v>2664</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,951 +593,2243 @@
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C12" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="3">
-        <v>2484</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="2">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
-        <v>2025</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
-        <v>248</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C14" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3">
-        <v>410</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>2553</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>2372</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C17" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3">
-        <v>2754</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C18" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>2677</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
         <v>2025</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>3071</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
         <v>2025</v>
       </c>
       <c r="C20" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E20" s="3">
-        <v>3019</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2">
         <v>2025</v>
       </c>
       <c r="C21" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3">
-        <v>3081</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2">
         <v>2025</v>
       </c>
       <c r="C22" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>3114</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2">
         <v>2025</v>
       </c>
       <c r="C23" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>3149</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2">
         <v>2025</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3">
-        <v>3133</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2">
         <v>2025</v>
       </c>
       <c r="C25" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E25" s="3">
-        <v>2968</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2">
         <v>2025</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2">
         <v>2025</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E27" s="3">
-        <v>476</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
         <v>2025</v>
       </c>
       <c r="C28" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2">
         <v>2025</v>
       </c>
       <c r="C29" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E29" s="3">
-        <v>465</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2">
         <v>2025</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E30" s="3">
-        <v>548</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2">
         <v>2025</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B32" s="2">
         <v>2025</v>
       </c>
       <c r="C32" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>462</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2">
         <v>2025</v>
       </c>
       <c r="C33" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C34" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="3">
-        <v>525</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="3">
-        <v>464</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C36" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E36" s="3">
-        <v>2</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C37" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="3">
-        <v>447</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B38" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C38" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E38" s="3">
-        <v>4</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C39" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="3">
-        <v>489</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C40" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E40" s="3">
-        <v>1</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2">
         <v>2025</v>
       </c>
       <c r="C41" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="3">
-        <v>447</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B42" s="2">
         <v>2025</v>
       </c>
       <c r="C42" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E42" s="3">
-        <v>9</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" s="2">
         <v>2025</v>
       </c>
       <c r="C43" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="3">
-        <v>550</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2">
         <v>2025</v>
       </c>
       <c r="C44" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E44" s="3">
-        <v>7</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" s="2">
         <v>2025</v>
       </c>
       <c r="C45" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="3">
-        <v>520</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2">
         <v>2025</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E46" s="3">
-        <v>318</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2">
         <v>2025</v>
       </c>
       <c r="C47" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E47" s="3">
-        <v>283</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B48" s="2">
         <v>2025</v>
       </c>
       <c r="C48" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E48" s="3">
-        <v>378</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B49" s="2">
         <v>2025</v>
       </c>
       <c r="C49" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E49" s="3">
-        <v>357</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B50" s="2">
         <v>2025</v>
       </c>
       <c r="C50" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E50" s="3">
-        <v>329</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2">
         <v>2025</v>
       </c>
       <c r="C51" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E51" s="3">
-        <v>312</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B52" s="2">
         <v>2025</v>
       </c>
       <c r="C52" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E52" s="3">
-        <v>322</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B53" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C53" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E53" s="3">
-        <v>326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B54" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C54" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E54" s="3">
-        <v>343</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B55" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C55" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E55" s="3">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B56" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C56" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E56" s="3">
-        <v>298</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B57" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C57" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3">
-        <v>1852</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B58" s="2">
         <v>2025</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E58" s="3">
-        <v>1702</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B59" s="2">
         <v>2025</v>
       </c>
       <c r="C59" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E59" s="3">
-        <v>1974</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B60" s="2">
         <v>2025</v>
       </c>
       <c r="C60" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E60" s="3">
-        <v>1926</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B61" s="2">
         <v>2025</v>
       </c>
       <c r="C61" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E61" s="3">
-        <v>1841</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B62" s="2">
         <v>2025</v>
       </c>
       <c r="C62" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E62" s="3">
-        <v>1688</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B63" s="2">
         <v>2025</v>
       </c>
       <c r="C63" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E63" s="3">
-        <v>1727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B64" s="2">
         <v>2025</v>
       </c>
       <c r="C64" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E64" s="3">
-        <v>1761</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B65" s="2">
         <v>2025</v>
       </c>
       <c r="C65" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E65" s="3">
-        <v>1751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2">
         <v>2025</v>
       </c>
       <c r="C66" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E66" s="3">
-        <v>1838</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B67" s="2">
         <v>2025</v>
       </c>
       <c r="C67" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E67" s="3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C68" s="2">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C69" s="2">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C70" s="2">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C71" s="2">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C72" s="2">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C73" s="2">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C74" s="2">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C75" s="2">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C76" s="2">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C77" s="2">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C78" s="2">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C79" s="2">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C81" s="2">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C82" s="2">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C83" s="2">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C84" s="2">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C85" s="2">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C86" s="2">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C89" s="2">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C90" s="2">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C91" s="2">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C92" s="2">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C93" s="2">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" s="3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C94" s="2">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C95" s="2">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C96" s="2">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C97" s="2">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C98" s="2">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C102" s="2">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C103" s="2">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C104" s="2">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C105" s="2">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C106" s="2">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C107" s="2">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C108" s="2">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C109" s="2">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C110" s="2">
+        <v>12</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C111" s="2">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C112" s="2">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>15</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C113" s="2">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="3">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C114" s="2">
+        <v>7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="3">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C115" s="2">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="3">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C116" s="2">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="3">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C117" s="2">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="3">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C118" s="2">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="3">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C119" s="2">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="3">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="3">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C122" s="2">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="3">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>15</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C123" s="2">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C124" s="2">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="3">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C125" s="2">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="3">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>15</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C126" s="2">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="3">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C127" s="2">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C128" s="2">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>15</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C129" s="2">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C130" s="2">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C131" s="2">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C135" s="2">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C136" s="2">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C137" s="2">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C138" s="2">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C139" s="2">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C140" s="2">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C141" s="2">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C142" s="2">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="3">
         <v>1721</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C143" s="2">
+        <v>12</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1712</v>
       </c>
     </row>
   </sheetData>
